--- a/reports/test_company_field_editing_report.xlsx
+++ b/reports/test_company_field_editing_report.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Verify that company name field can be edited and updated value is displayed correctly.</t>
+          <t>Verify successful company creation with all mandatory fields.</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Verify Tc</t>
+          <t>Verify that company name field can be edited and updated value is displayed correctly.</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -651,12 +651,12 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>Test failed - actual behavior did not match expected result</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>FAILED</t>
+          <t>Test not executed</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>Not Run</t>
         </is>
       </c>
     </row>
@@ -1243,6 +1243,398 @@
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>Not Run</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="80" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>TC_016</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Verify comprehensive company fields editing using direct locators approach.</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>User is on the company field editing page</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Company Field Editing test data</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>1. Navigate to company field editing page
+2. Perform required actions
+3. Verify expected behavior</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>Company Field Editing functionality should work as expected</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>Test not executed</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>Not Run</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="80" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>TC_017</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Verify individual company name field editing with current value.</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>User is on the company field editing page</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>Company Field Editing test data</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>1. Navigate to company field editing page
+2. Perform required actions
+3. Verify expected behavior</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>Company Field Editing functionality should work as expected</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>Test not executed</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>Not Run</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="80" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>TC_018</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Verify individual website field editing with current value.</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>User is on the company field editing page</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Company Field Editing test data</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>1. Navigate to company field editing page
+2. Perform required actions
+3. Verify expected behavior</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>Company Field Editing functionality should work as expected</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>Test not executed</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>Not Run</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="80" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>TC_019</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Verify individual industry field editing with current value.</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>User is on the company field editing page</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Company Field Editing test data</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>1. Navigate to company field editing page
+2. Perform required actions
+3. Verify expected behavior</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>Company Field Editing functionality should work as expected</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>Test failed - actual behavior did not match expected result</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="80" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>TC_020</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Verify individual HQ in JPN field editing with current value.</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>User is on the company field editing page</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Company Field Editing test data</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>1. Navigate to company field editing page
+2. Perform required actions
+3. Verify expected behavior</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>Company Field Editing functionality should work as expected</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>Test not executed</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>Not Run</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="80" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>TC_021</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Verify individual Global HQ field editing with current value.</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>User is on the company field editing page</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>Company Field Editing test data</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>1. Navigate to company field editing page
+2. Perform required actions
+3. Verify expected behavior</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>Company Field Editing functionality should work as expected</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>Test not executed</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>Not Run</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="80" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>TC_022</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Verify individual Country of origin field editing with current value.</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>User is on the company field editing page</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Company Field Editing test data</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>1. Navigate to company field editing page
+2. Perform required actions
+3. Verify expected behavior</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>Company Field Editing functionality should work as expected</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>Test not executed</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>Not Run</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="80" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>TC_023</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Verify individual Company address field editing with current value.</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>User is on the company field editing page</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>Company Field Editing test data</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>1. Navigate to company field editing page
+2. Perform required actions
+3. Verify expected behavior</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>Company Field Editing functionality should work as expected</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>Test not executed</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
         <is>
           <t>Not Run</t>
         </is>
